--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/20/seed5/result_data_RandomForest.xlsx
@@ -583,7 +583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.88550000000002</v>
+        <v>-21.74250000000002</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -592,12 +592,12 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.626199999999995</v>
+        <v>-7.51329999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.38579999999999</v>
+        <v>-21.3892</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.98130000000001</v>
+        <v>-21.96640000000001</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.2723</v>
+        <v>-8.305</v>
       </c>
     </row>
     <row r="24">
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.95359999999999</v>
+        <v>-21.97069999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.9885</v>
+        <v>-21.9355</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.273299999999994</v>
+        <v>-8.157999999999994</v>
       </c>
     </row>
     <row r="29">
@@ -863,7 +863,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.8566</v>
+        <v>-21.8804</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.63780000000001</v>
+        <v>-21.58440000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.061199999999994</v>
+        <v>-7.110299999999993</v>
       </c>
     </row>
     <row r="33">
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.1341</v>
+        <v>-8.005699999999997</v>
       </c>
     </row>
     <row r="35">
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.34680000000002</v>
+        <v>-20.5421</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.936600000000003</v>
+        <v>-6.860900000000003</v>
       </c>
     </row>
     <row r="37">
@@ -956,12 +956,12 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-8.488400000000002</v>
+        <v>-8.424700000000005</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.77529999999998</v>
+        <v>-19.61859999999998</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.843499999999997</v>
+        <v>-8.809999999999995</v>
       </c>
     </row>
     <row r="43">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.84120000000001</v>
+        <v>-21.7743</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.117800000000003</v>
+        <v>-7.956799999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1185,7 +1185,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.8691</v>
+        <v>-21.94050000000001</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1194,12 +1194,12 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.814999999999999</v>
+        <v>-7.915999999999997</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.33500000000002</v>
+        <v>-22.18870000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.13330000000002</v>
+        <v>-22.14170000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.47039999999997</v>
+        <v>-21.46969999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.65939999999996</v>
+        <v>-21.65089999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.8752</v>
+        <v>-21.8435</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.8905</v>
+        <v>-20.05169999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.891199999999999</v>
+        <v>-8.058600000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.974799999999997</v>
+        <v>-8.074100000000001</v>
       </c>
     </row>
     <row r="81">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.76349999999999</v>
+        <v>-21.65969999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.9224</v>
+        <v>-21.5981</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.35599999999998</v>
+        <v>-20.53249999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.39760000000001</v>
+        <v>-21.35890000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.262299999999994</v>
+        <v>-8.033199999999994</v>
       </c>
     </row>
     <row r="98">
@@ -1815,7 +1815,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.8259</v>
+        <v>-21.85020000000002</v>
       </c>
       <c r="B99" t="n">
         <v>5.08</v>
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.875799999999997</v>
+        <v>-7.884699999999994</v>
       </c>
     </row>
     <row r="100">
@@ -1838,7 +1838,7 @@
         <v>-13.95</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.049899999999999</v>
+        <v>-8.17799999999999</v>
       </c>
     </row>
     <row r="101">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.137399999999998</v>
+        <v>-8.280699999999994</v>
       </c>
     </row>
     <row r="102">
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.54469999999999</v>
+        <v>-21.6141</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-19.77289999999999</v>
+        <v>-19.67069999999999</v>
       </c>
       <c r="B105" t="n">
         <v>9.01</v>
